--- a/Data/Global Data/Population_Country4.xlsx
+++ b/Data/Global Data/Population_Country4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balbi\git\migration\Data\Global Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ab6176\Documents\GitHub\migration\Data\Global Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="population" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="293">
   <si>
     <t>'Zimbabwe'</t>
   </si>
@@ -822,12 +822,93 @@
   </si>
   <si>
     <t>x1990</t>
+  </si>
+  <si>
+    <t>x1991</t>
+  </si>
+  <si>
+    <t>x1992</t>
+  </si>
+  <si>
+    <t>x1993</t>
+  </si>
+  <si>
+    <t>x1994</t>
+  </si>
+  <si>
+    <t>x1995</t>
+  </si>
+  <si>
+    <t>x1996</t>
+  </si>
+  <si>
+    <t>x1997</t>
+  </si>
+  <si>
+    <t>x1998</t>
+  </si>
+  <si>
+    <t>x1999</t>
+  </si>
+  <si>
+    <t>x2000</t>
+  </si>
+  <si>
+    <t>x2001</t>
+  </si>
+  <si>
+    <t>x2002</t>
+  </si>
+  <si>
+    <t>x2003</t>
+  </si>
+  <si>
+    <t>x2004</t>
+  </si>
+  <si>
+    <t>x2005</t>
+  </si>
+  <si>
+    <t>x2006</t>
+  </si>
+  <si>
+    <t>x2007</t>
+  </si>
+  <si>
+    <t>x2008</t>
+  </si>
+  <si>
+    <t>x2009</t>
+  </si>
+  <si>
+    <t>x2010</t>
+  </si>
+  <si>
+    <t>x2011</t>
+  </si>
+  <si>
+    <t>x2012</t>
+  </si>
+  <si>
+    <t>x2013</t>
+  </si>
+  <si>
+    <t>x2014</t>
+  </si>
+  <si>
+    <t>x2015</t>
+  </si>
+  <si>
+    <t>x2016</t>
+  </si>
+  <si>
+    <t>x2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1141,16 +1222,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C265"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>264</v>
       </c>
@@ -1160,89 +1241,89 @@
       <c r="C1" t="s">
         <v>265</v>
       </c>
-      <c r="D1">
-        <v>1991</v>
-      </c>
-      <c r="E1">
-        <v>1992</v>
-      </c>
-      <c r="F1">
-        <v>1993</v>
-      </c>
-      <c r="G1">
-        <v>1994</v>
-      </c>
-      <c r="H1">
-        <v>1995</v>
-      </c>
-      <c r="I1">
-        <v>1996</v>
-      </c>
-      <c r="J1">
-        <v>1997</v>
-      </c>
-      <c r="K1">
-        <v>1998</v>
-      </c>
-      <c r="L1">
-        <v>1999</v>
-      </c>
-      <c r="M1">
-        <v>2000</v>
-      </c>
-      <c r="N1">
-        <v>2001</v>
-      </c>
-      <c r="O1">
-        <v>2002</v>
-      </c>
-      <c r="P1">
-        <v>2003</v>
-      </c>
-      <c r="Q1">
-        <v>2004</v>
-      </c>
-      <c r="R1">
-        <v>2005</v>
-      </c>
-      <c r="S1">
-        <v>2006</v>
-      </c>
-      <c r="T1">
-        <v>2007</v>
-      </c>
-      <c r="U1">
-        <v>2008</v>
-      </c>
-      <c r="V1">
-        <v>2009</v>
-      </c>
-      <c r="W1">
-        <v>2010</v>
-      </c>
-      <c r="X1">
-        <v>2011</v>
-      </c>
-      <c r="Y1">
-        <v>2012</v>
-      </c>
-      <c r="Z1">
-        <v>2013</v>
-      </c>
-      <c r="AA1">
-        <v>2014</v>
-      </c>
-      <c r="AB1">
-        <v>2015</v>
-      </c>
-      <c r="AC1">
-        <v>2016</v>
-      </c>
-      <c r="AD1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J1" t="s">
+        <v>272</v>
+      </c>
+      <c r="K1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L1" t="s">
+        <v>274</v>
+      </c>
+      <c r="M1" t="s">
+        <v>275</v>
+      </c>
+      <c r="N1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" t="s">
+        <v>277</v>
+      </c>
+      <c r="P1" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>279</v>
+      </c>
+      <c r="R1" t="s">
+        <v>280</v>
+      </c>
+      <c r="S1" t="s">
+        <v>281</v>
+      </c>
+      <c r="T1" t="s">
+        <v>282</v>
+      </c>
+      <c r="U1" t="s">
+        <v>283</v>
+      </c>
+      <c r="V1" t="s">
+        <v>284</v>
+      </c>
+      <c r="W1" t="s">
+        <v>285</v>
+      </c>
+      <c r="X1" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -1334,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>166</v>
       </c>
@@ -1426,7 +1507,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>165</v>
       </c>
@@ -1518,7 +1599,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>164</v>
       </c>
@@ -1610,7 +1691,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -1702,7 +1783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>170</v>
       </c>
@@ -1794,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>163</v>
       </c>
@@ -1886,7 +1967,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -1978,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>172</v>
       </c>
@@ -2070,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -2162,7 +2243,7 @@
         <v>44.3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>161</v>
       </c>
@@ -2254,7 +2335,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>173</v>
       </c>
@@ -2346,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>174</v>
       </c>
@@ -2438,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -2530,7 +2611,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -2622,7 +2703,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>158</v>
       </c>
@@ -2714,7 +2795,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>157</v>
       </c>
@@ -2806,7 +2887,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>156</v>
       </c>
@@ -2898,7 +2979,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>175</v>
       </c>
@@ -2990,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>175</v>
       </c>
@@ -3082,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -3174,7 +3255,7 @@
         <v>164.7</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>154</v>
       </c>
@@ -3266,7 +3347,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>153</v>
       </c>
@@ -3358,7 +3439,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>152</v>
       </c>
@@ -3450,7 +3531,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>151</v>
       </c>
@@ -3542,7 +3623,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>150</v>
       </c>
@@ -3634,7 +3715,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -3726,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>149</v>
       </c>
@@ -3818,7 +3899,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -3910,7 +3991,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>177</v>
       </c>
@@ -4002,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -4094,7 +4175,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -4186,7 +4267,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -4278,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -4370,7 +4451,7 @@
         <v>209.3</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -4462,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -4554,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -4646,7 +4727,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>143</v>
       </c>
@@ -4738,7 +4819,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -4830,7 +4911,7 @@
         <v>53.4</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>141</v>
       </c>
@@ -4922,7 +5003,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -5014,7 +5095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -5106,7 +5187,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>138</v>
       </c>
@@ -5198,7 +5279,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -5290,7 +5371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>181</v>
       </c>
@@ -5382,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -5474,7 +5555,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>135</v>
       </c>
@@ -5566,7 +5647,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -5658,7 +5739,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>133</v>
       </c>
@@ -5750,7 +5831,7 @@
         <v>1409.5</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -5842,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>183</v>
       </c>
@@ -5934,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>184</v>
       </c>
@@ -6026,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -6118,7 +6199,7 @@
         <v>49.1</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -6210,7 +6291,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>130</v>
       </c>
@@ -6302,7 +6383,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -6394,7 +6475,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -6486,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -6578,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>128</v>
       </c>
@@ -6670,7 +6751,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -6762,7 +6843,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>187</v>
       </c>
@@ -6854,7 +6935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>188</v>
       </c>
@@ -6946,7 +7027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -7038,7 +7119,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -7130,7 +7211,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -7222,7 +7303,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>124</v>
       </c>
@@ -7314,7 +7395,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -7406,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>190</v>
       </c>
@@ -7498,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>122</v>
       </c>
@@ -7590,7 +7671,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>121</v>
       </c>
@@ -7682,7 +7763,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>120</v>
       </c>
@@ -7774,7 +7855,7 @@
         <v>97.6</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -7866,7 +7947,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>118</v>
       </c>
@@ -7958,7 +8039,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>117</v>
       </c>
@@ -8050,7 +8131,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -8142,7 +8223,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>115</v>
       </c>
@@ -8234,7 +8315,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -8326,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>192</v>
       </c>
@@ -8418,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -8510,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -8602,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -8694,7 +8775,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>113</v>
       </c>
@@ -8786,7 +8867,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>112</v>
       </c>
@@ -8878,7 +8959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>195</v>
       </c>
@@ -8970,7 +9051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -9062,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>197</v>
       </c>
@@ -9154,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>111</v>
       </c>
@@ -9246,7 +9327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>110</v>
       </c>
@@ -9338,7 +9419,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -9430,7 +9511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -9522,7 +9603,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>108</v>
       </c>
@@ -9614,7 +9695,7 @@
         <v>82.1</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>107</v>
       </c>
@@ -9706,7 +9787,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>199</v>
       </c>
@@ -9798,7 +9879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>200</v>
       </c>
@@ -9890,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -9982,7 +10063,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>201</v>
       </c>
@@ -10074,7 +10155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -10166,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>203</v>
       </c>
@@ -10258,7 +10339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>204</v>
       </c>
@@ -10350,7 +10431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>105</v>
       </c>
@@ -10442,7 +10523,7 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>205</v>
       </c>
@@ -10534,7 +10615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -10626,7 +10707,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10718,7 +10799,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -10810,7 +10891,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -10902,7 +10983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -10994,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>100</v>
       </c>
@@ -11086,7 +11167,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>207</v>
       </c>
@@ -11178,7 +11259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>208</v>
       </c>
@@ -11270,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>99</v>
       </c>
@@ -11362,7 +11443,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>98</v>
       </c>
@@ -11454,7 +11535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -11546,7 +11627,7 @@
         <v>1339.2</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -11638,7 +11719,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>95</v>
       </c>
@@ -11730,7 +11811,7 @@
         <v>81.2</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>94</v>
       </c>
@@ -11822,7 +11903,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>93</v>
       </c>
@@ -11914,7 +11995,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>209</v>
       </c>
@@ -12006,7 +12087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -12098,7 +12179,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>91</v>
       </c>
@@ -12190,7 +12271,7 @@
         <v>59.4</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>90</v>
       </c>
@@ -12282,7 +12363,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>89</v>
       </c>
@@ -12374,7 +12455,7 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>210</v>
       </c>
@@ -12466,7 +12547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>211</v>
       </c>
@@ -12558,7 +12639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>212</v>
       </c>
@@ -12650,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>88</v>
       </c>
@@ -12742,7 +12823,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -12834,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -12926,7 +13007,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>86</v>
       </c>
@@ -13018,7 +13099,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>214</v>
       </c>
@@ -13110,7 +13191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>215</v>
       </c>
@@ -13202,7 +13283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>85</v>
       </c>
@@ -13294,7 +13375,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>84</v>
       </c>
@@ -13386,7 +13467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>83</v>
       </c>
@@ -13478,7 +13559,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>82</v>
       </c>
@@ -13570,7 +13651,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>81</v>
       </c>
@@ -13662,7 +13743,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="137" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>80</v>
       </c>
@@ -13754,7 +13835,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>79</v>
       </c>
@@ -13846,7 +13927,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>78</v>
       </c>
@@ -13938,7 +14019,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>216</v>
       </c>
@@ -14030,7 +14111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>77</v>
       </c>
@@ -14122,7 +14203,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>76</v>
       </c>
@@ -14214,7 +14295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="143" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>217</v>
       </c>
@@ -14306,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>75</v>
       </c>
@@ -14398,7 +14479,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="145" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -14490,7 +14571,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="146" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>73</v>
       </c>
@@ -14582,7 +14663,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -14674,7 +14755,7 @@
         <v>31.6</v>
       </c>
     </row>
-    <row r="148" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>71</v>
       </c>
@@ -14766,7 +14847,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="149" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>70</v>
       </c>
@@ -14858,7 +14939,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="150" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -14950,7 +15031,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="151" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>218</v>
       </c>
@@ -15042,7 +15123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>219</v>
       </c>
@@ -15134,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>68</v>
       </c>
@@ -15226,7 +15307,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>67</v>
       </c>
@@ -15318,7 +15399,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="155" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>220</v>
       </c>
@@ -15410,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>66</v>
       </c>
@@ -15502,7 +15583,7 @@
         <v>129.19999999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>221</v>
       </c>
@@ -15594,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -15686,7 +15767,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>222</v>
       </c>
@@ -15778,7 +15859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>64</v>
       </c>
@@ -15870,7 +15951,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>63</v>
       </c>
@@ -15962,7 +16043,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>223</v>
       </c>
@@ -16054,7 +16135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>62</v>
       </c>
@@ -16146,7 +16227,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>61</v>
       </c>
@@ -16238,7 +16319,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -16330,7 +16411,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>224</v>
       </c>
@@ -16422,7 +16503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>225</v>
       </c>
@@ -16514,7 +16595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>59</v>
       </c>
@@ -16606,7 +16687,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -16698,7 +16779,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>226</v>
       </c>
@@ -16790,7 +16871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>57</v>
       </c>
@@ -16882,7 +16963,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>56</v>
       </c>
@@ -16974,7 +17055,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="173" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>55</v>
       </c>
@@ -17066,7 +17147,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="174" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>54</v>
       </c>
@@ -17158,7 +17239,7 @@
         <v>190.9</v>
       </c>
     </row>
-    <row r="175" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>227</v>
       </c>
@@ -17250,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>228</v>
       </c>
@@ -17342,7 +17423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>229</v>
       </c>
@@ -17434,7 +17515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>230</v>
       </c>
@@ -17526,7 +17607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>53</v>
       </c>
@@ -17618,7 +17699,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
@@ -17710,7 +17791,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -17802,7 +17883,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>231</v>
       </c>
@@ -17894,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>232</v>
       </c>
@@ -17986,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>233</v>
       </c>
@@ -18078,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>50</v>
       </c>
@@ -18170,7 +18251,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>49</v>
       </c>
@@ -18262,7 +18343,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>48</v>
       </c>
@@ -18354,7 +18435,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>47</v>
       </c>
@@ -18446,7 +18527,7 @@
         <v>32.200000000000003</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>46</v>
       </c>
@@ -18538,7 +18619,7 @@
         <v>104.9</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>234</v>
       </c>
@@ -18630,7 +18711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>45</v>
       </c>
@@ -18722,7 +18803,7 @@
         <v>38.200000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>44</v>
       </c>
@@ -18814,7 +18895,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>235</v>
       </c>
@@ -18906,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>43</v>
       </c>
@@ -18998,7 +19079,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>236</v>
       </c>
@@ -19090,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>42</v>
       </c>
@@ -19182,7 +19263,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -19274,7 +19355,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>40</v>
       </c>
@@ -19366,7 +19447,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>237</v>
       </c>
@@ -19458,7 +19539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>238</v>
       </c>
@@ -19550,7 +19631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>239</v>
       </c>
@@ -19642,7 +19723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>39</v>
       </c>
@@ -19734,7 +19815,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>240</v>
       </c>
@@ -19826,7 +19907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>241</v>
       </c>
@@ -19918,7 +19999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>38</v>
       </c>
@@ -20010,7 +20091,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>37</v>
       </c>
@@ -20102,7 +20183,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>242</v>
       </c>
@@ -20194,7 +20275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -20286,7 +20367,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>35</v>
       </c>
@@ -20378,7 +20459,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>34</v>
       </c>
@@ -20470,7 +20551,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>243</v>
       </c>
@@ -20562,7 +20643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>244</v>
       </c>
@@ -20654,7 +20735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>33</v>
       </c>
@@ -20746,7 +20827,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>32</v>
       </c>
@@ -20838,7 +20919,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>245</v>
       </c>
@@ -20930,7 +21011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>246</v>
       </c>
@@ -21022,7 +21103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>31</v>
       </c>
@@ -21114,7 +21195,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -21206,7 +21287,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>247</v>
       </c>
@@ -21298,7 +21379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -21390,7 +21471,7 @@
         <v>56.7</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>248</v>
       </c>
@@ -21482,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>28</v>
       </c>
@@ -21574,7 +21655,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -21666,7 +21747,7 @@
         <v>46.4</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>249</v>
       </c>
@@ -21758,7 +21839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>26</v>
       </c>
@@ -21850,7 +21931,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>250</v>
       </c>
@@ -21942,7 +22023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>25</v>
       </c>
@@ -22034,7 +22115,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>251</v>
       </c>
@@ -22126,7 +22207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>24</v>
       </c>
@@ -22218,7 +22299,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -22310,7 +22391,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>22</v>
       </c>
@@ -22402,7 +22483,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>252</v>
       </c>
@@ -22494,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>253</v>
       </c>
@@ -22586,7 +22667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -22678,7 +22759,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>20</v>
       </c>
@@ -22770,7 +22851,7 @@
         <v>57.3</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>19</v>
       </c>
@@ -22862,7 +22943,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>18</v>
       </c>
@@ -22954,7 +23035,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -23046,7 +23127,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>254</v>
       </c>
@@ -23138,7 +23219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -23230,7 +23311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -23322,7 +23403,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>255</v>
       </c>
@@ -23414,7 +23495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>14</v>
       </c>
@@ -23506,7 +23587,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>13</v>
       </c>
@@ -23598,7 +23679,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>12</v>
       </c>
@@ -23690,7 +23771,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>256</v>
       </c>
@@ -23782,7 +23863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>257</v>
       </c>
@@ -23874,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>11</v>
       </c>
@@ -23966,7 +24047,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>10</v>
       </c>
@@ -24058,7 +24139,7 @@
         <v>44.2</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>9</v>
       </c>
@@ -24150,7 +24231,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -24242,7 +24323,7 @@
         <v>66.2</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -24334,7 +24415,7 @@
         <v>324.5</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -24426,7 +24507,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -24518,7 +24599,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -24610,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>4</v>
       </c>
@@ -24702,7 +24783,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>3</v>
       </c>
@@ -24794,7 +24875,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>259</v>
       </c>
@@ -24886,7 +24967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>260</v>
       </c>
@@ -24978,7 +25059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>261</v>
       </c>
@@ -25070,7 +25151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>262</v>
       </c>
@@ -25162,7 +25243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>2</v>
       </c>
@@ -25254,7 +25335,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1</v>
       </c>
@@ -25346,7 +25427,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>0</v>
       </c>
@@ -25438,7 +25519,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
